--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_30/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_30/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.020696172</t>
+          <t>0.024497068</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.08582149</t>
+          <t>0.09113069</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.011243962</t>
+          <t>0.0137063535</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.062358987</t>
+          <t>0.068017416</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.023462892</t>
+          <t>0.024446411</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.11498462</t>
+          <t>0.12685926</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,19 +579,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.023269312</t>
+          <t>0.022982089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12088271</t>
+          <t>0.12083936</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
